--- a/trabajos.inacap.2019/Preparacion y evaluacion de proyecto (PEP)/Guia ABpro Nª3/Assets/Flujo de caja.xlsx
+++ b/trabajos.inacap.2019/Preparacion y evaluacion de proyecto (PEP)/Guia ABpro Nª3/Assets/Flujo de caja.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7050C35D-C553-40E8-AEF9-BFC6E1B6E6AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6065CA4B-843C-4F56-AB82-315F3F61B7FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="766" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="766" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de Caja" sheetId="10" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Despreciacion Activo Fijos " sheetId="8" r:id="rId7"/>
     <sheet name="Valor Desecho" sheetId="9" r:id="rId8"/>
     <sheet name="Amortizacion" sheetId="3" r:id="rId9"/>
+    <sheet name="Tasa de Descuento" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="195">
   <si>
     <t>Año</t>
   </si>
@@ -544,10 +545,6 @@
   </si>
   <si>
     <t>Venta (Juicio Experto)</t>
-  </si>
-  <si>
-    <t>ACTUALIZADO EL 30 DE JUNIO 2019
-estos valores</t>
   </si>
   <si>
     <t>Flujo del Año</t>
@@ -785,6 +782,16 @@
   <si>
     <t>Flujo de Caja</t>
   </si>
+  <si>
+    <t>ACTUALIZADO EL 9 DE JUlIO 2019
+estos valores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital </t>
+  </si>
+  <si>
+    <t>Tabla de Descuento</t>
+  </si>
 </sst>
 </file>
 
@@ -796,7 +803,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1215,7 +1222,7 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="1" fillId="12" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
@@ -1343,7 +1350,7 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="42" fontId="7" fillId="15" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1355,39 +1362,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -1452,6 +1426,13 @@
     <xf numFmtId="42" fontId="18" fillId="27" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="30" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1467,10 +1448,40 @@
     <xf numFmtId="9" fontId="0" fillId="30" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="24" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="24" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="20% - Énfasis1" xfId="8" builtinId="30"/>
@@ -1785,7 +1796,7 @@
   <dimension ref="B2:I59"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,46 +1810,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="98" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
+      <c r="B2" s="122" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="114">
-        <v>0</v>
-      </c>
-      <c r="D4" s="114">
+      <c r="B4" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="103">
+        <v>0</v>
+      </c>
+      <c r="D4" s="103">
         <v>1</v>
       </c>
-      <c r="E4" s="114">
+      <c r="E4" s="103">
         <v>2</v>
       </c>
-      <c r="F4" s="114">
+      <c r="F4" s="103">
         <v>3</v>
       </c>
-      <c r="G4" s="114">
+      <c r="G4" s="103">
         <v>4</v>
       </c>
-      <c r="H4" s="114">
+      <c r="H4" s="103">
         <v>5</v>
       </c>
-      <c r="I4" s="114">
+      <c r="I4" s="103">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="94">
         <f>C8+C9+C10+C11</f>
@@ -1871,7 +1882,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -1882,8 +1893,8 @@
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="109" t="s">
-        <v>156</v>
+      <c r="B7" s="98" t="s">
+        <v>155</v>
       </c>
       <c r="C7" s="92">
         <v>0</v>
@@ -1914,8 +1925,8 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="109" t="s">
-        <v>157</v>
+      <c r="B8" s="98" t="s">
+        <v>156</v>
       </c>
       <c r="C8" s="21">
         <v>0</v>
@@ -1947,7 +1958,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="91" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="21">
         <f>'Costos de desarrollo'!$K$25</f>
@@ -1974,7 +1985,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
@@ -1986,7 +1997,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="91" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="21">
         <f>'Costo de Implementacion'!$E$10</f>
@@ -2013,7 +2024,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="21">
         <f>Complementario!$I$8</f>
@@ -2039,7 +2050,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="123"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -2049,286 +2060,286 @@
       <c r="I13" s="28"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="113">
+      <c r="B14" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="102">
         <f>SUM(C15,C18)</f>
         <v>41937886</v>
       </c>
-      <c r="D14" s="113">
+      <c r="D14" s="102">
         <f>SUM(D15,D18)</f>
         <v>8348376</v>
       </c>
-      <c r="E14" s="113">
+      <c r="E14" s="102">
         <f t="shared" ref="E14:I14" si="2">SUM(E15,E18)</f>
         <v>8348376</v>
       </c>
-      <c r="F14" s="113">
+      <c r="F14" s="102">
         <f t="shared" si="2"/>
         <v>8348376</v>
       </c>
-      <c r="G14" s="113">
+      <c r="G14" s="102">
         <f t="shared" si="2"/>
         <v>8348376</v>
       </c>
-      <c r="H14" s="113">
+      <c r="H14" s="102">
         <f t="shared" si="2"/>
         <v>8348376</v>
       </c>
-      <c r="I14" s="113">
+      <c r="I14" s="102">
         <f t="shared" si="2"/>
         <v>8348376</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="115" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="116">
+      <c r="B15" s="104" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="105">
         <f>SUM(C16,C17)</f>
         <v>33589510</v>
       </c>
-      <c r="D15" s="117">
-        <v>0</v>
-      </c>
-      <c r="E15" s="117">
-        <v>0</v>
-      </c>
-      <c r="F15" s="117">
-        <v>0</v>
-      </c>
-      <c r="G15" s="117">
-        <v>0</v>
-      </c>
-      <c r="H15" s="117">
-        <v>0</v>
-      </c>
-      <c r="I15" s="117">
+      <c r="D15" s="106">
+        <v>0</v>
+      </c>
+      <c r="E15" s="106">
+        <v>0</v>
+      </c>
+      <c r="F15" s="106">
+        <v>0</v>
+      </c>
+      <c r="G15" s="106">
+        <v>0</v>
+      </c>
+      <c r="H15" s="106">
+        <v>0</v>
+      </c>
+      <c r="I15" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="118" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="116">
+      <c r="B16" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="105">
         <f>'Activo Fijos y Nominales'!$F$12</f>
         <v>24770350</v>
       </c>
-      <c r="D16" s="117">
-        <v>0</v>
-      </c>
-      <c r="E16" s="117">
-        <v>0</v>
-      </c>
-      <c r="F16" s="117">
-        <v>0</v>
-      </c>
-      <c r="G16" s="117">
-        <v>0</v>
-      </c>
-      <c r="H16" s="117">
-        <v>0</v>
-      </c>
-      <c r="I16" s="117">
+      <c r="D16" s="106">
+        <v>0</v>
+      </c>
+      <c r="E16" s="106">
+        <v>0</v>
+      </c>
+      <c r="F16" s="106">
+        <v>0</v>
+      </c>
+      <c r="G16" s="106">
+        <v>0</v>
+      </c>
+      <c r="H16" s="106">
+        <v>0</v>
+      </c>
+      <c r="I16" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="116">
+      <c r="B17" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="105">
         <f>'Activo Fijos y Nominales'!$F$25</f>
         <v>8819160</v>
       </c>
-      <c r="D17" s="117">
-        <v>0</v>
-      </c>
-      <c r="E17" s="117">
-        <v>0</v>
-      </c>
-      <c r="F17" s="117">
-        <v>0</v>
-      </c>
-      <c r="G17" s="117">
-        <v>0</v>
-      </c>
-      <c r="H17" s="117">
-        <v>0</v>
-      </c>
-      <c r="I17" s="117">
+      <c r="D17" s="106">
+        <v>0</v>
+      </c>
+      <c r="E17" s="106">
+        <v>0</v>
+      </c>
+      <c r="F17" s="106">
+        <v>0</v>
+      </c>
+      <c r="G17" s="106">
+        <v>0</v>
+      </c>
+      <c r="H17" s="106">
+        <v>0</v>
+      </c>
+      <c r="I17" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="120">
+      <c r="C18" s="109">
         <f>SUM(C19:C22)</f>
         <v>8348376</v>
       </c>
-      <c r="D18" s="120">
+      <c r="D18" s="109">
         <f t="shared" ref="D18:I18" si="3">SUM(D19:D22)</f>
         <v>8348376</v>
       </c>
-      <c r="E18" s="120">
+      <c r="E18" s="109">
         <f t="shared" si="3"/>
         <v>8348376</v>
       </c>
-      <c r="F18" s="120">
+      <c r="F18" s="109">
         <f t="shared" si="3"/>
         <v>8348376</v>
       </c>
-      <c r="G18" s="120">
+      <c r="G18" s="109">
         <f t="shared" si="3"/>
         <v>8348376</v>
       </c>
-      <c r="H18" s="120">
+      <c r="H18" s="109">
         <f t="shared" si="3"/>
         <v>8348376</v>
       </c>
-      <c r="I18" s="120">
+      <c r="I18" s="109">
         <f t="shared" si="3"/>
         <v>8348376</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="118" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="116">
+      <c r="B19" s="107" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="105">
         <f>'Costo de Implementacion'!$E$5*12</f>
         <v>3476736</v>
       </c>
-      <c r="D19" s="116">
+      <c r="D19" s="105">
         <f>'Costo de Implementacion'!$E$5*12</f>
         <v>3476736</v>
       </c>
-      <c r="E19" s="116">
+      <c r="E19" s="105">
         <f>'Costo de Implementacion'!$E$5*12</f>
         <v>3476736</v>
       </c>
-      <c r="F19" s="116">
+      <c r="F19" s="105">
         <f>'Costo de Implementacion'!$E$5*12</f>
         <v>3476736</v>
       </c>
-      <c r="G19" s="116">
+      <c r="G19" s="105">
         <f>'Costo de Implementacion'!$E$5*12</f>
         <v>3476736</v>
       </c>
-      <c r="H19" s="116">
+      <c r="H19" s="105">
         <f>'Costo de Implementacion'!$E$5*12</f>
         <v>3476736</v>
       </c>
-      <c r="I19" s="116">
+      <c r="I19" s="105">
         <f>'Costo de Implementacion'!$E$5*12</f>
         <v>3476736</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="118" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="116">
+      <c r="B20" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="105">
         <f>'Costo de Implementacion'!$E$14*12</f>
         <v>1092000</v>
       </c>
-      <c r="D20" s="116">
+      <c r="D20" s="105">
         <f>'Costo de Implementacion'!$E$14*12</f>
         <v>1092000</v>
       </c>
-      <c r="E20" s="116">
+      <c r="E20" s="105">
         <f>'Costo de Implementacion'!$E$14*12</f>
         <v>1092000</v>
       </c>
-      <c r="F20" s="116">
+      <c r="F20" s="105">
         <f>'Costo de Implementacion'!$E$14*12</f>
         <v>1092000</v>
       </c>
-      <c r="G20" s="116">
+      <c r="G20" s="105">
         <f>'Costo de Implementacion'!$E$14*12</f>
         <v>1092000</v>
       </c>
-      <c r="H20" s="116">
+      <c r="H20" s="105">
         <f>'Costo de Implementacion'!$E$14*12</f>
         <v>1092000</v>
       </c>
-      <c r="I20" s="116">
+      <c r="I20" s="105">
         <f>'Costo de Implementacion'!$E$14*12</f>
         <v>1092000</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="118" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="116">
+      <c r="B21" s="107" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="105">
         <f>'Costo de Implementacion'!$E$13*12</f>
         <v>1872000</v>
       </c>
-      <c r="D21" s="116">
+      <c r="D21" s="105">
         <f>'Costo de Implementacion'!$E$13*12</f>
         <v>1872000</v>
       </c>
-      <c r="E21" s="116">
+      <c r="E21" s="105">
         <f>'Costo de Implementacion'!$E$13*12</f>
         <v>1872000</v>
       </c>
-      <c r="F21" s="116">
+      <c r="F21" s="105">
         <f>'Costo de Implementacion'!$E$13*12</f>
         <v>1872000</v>
       </c>
-      <c r="G21" s="116">
+      <c r="G21" s="105">
         <f>'Costo de Implementacion'!$E$13*12</f>
         <v>1872000</v>
       </c>
-      <c r="H21" s="116">
+      <c r="H21" s="105">
         <f>'Costo de Implementacion'!$E$13*12</f>
         <v>1872000</v>
       </c>
-      <c r="I21" s="116">
+      <c r="I21" s="105">
         <f>'Costo de Implementacion'!$E$13*12</f>
         <v>1872000</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="118" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="116">
+      <c r="B22" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="105">
         <f>'Costo de Implementacion'!$E$6*12</f>
         <v>1907640</v>
       </c>
-      <c r="D22" s="116">
+      <c r="D22" s="105">
         <f>'Costo de Implementacion'!$E$6*12</f>
         <v>1907640</v>
       </c>
-      <c r="E22" s="116">
+      <c r="E22" s="105">
         <f>'Costo de Implementacion'!$E$6*12</f>
         <v>1907640</v>
       </c>
-      <c r="F22" s="116">
+      <c r="F22" s="105">
         <f>'Costo de Implementacion'!$E$6*12</f>
         <v>1907640</v>
       </c>
-      <c r="G22" s="116">
+      <c r="G22" s="105">
         <f>'Costo de Implementacion'!$E$6*12</f>
         <v>1907640</v>
       </c>
-      <c r="H22" s="116">
+      <c r="H22" s="105">
         <f>'Costo de Implementacion'!$E$6*12</f>
         <v>1907640</v>
       </c>
-      <c r="I22" s="116">
+      <c r="I22" s="105">
         <f>'Costo de Implementacion'!$E$6*12</f>
         <v>1907640</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="124"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -2338,167 +2349,167 @@
       <c r="I23" s="27"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="112" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="113">
-        <f>C25+C28</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="113">
-        <f>D25+D28</f>
+      <c r="B24" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="102">
+        <f t="shared" ref="C24:I24" si="4">C25+C28</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="102">
+        <f t="shared" si="4"/>
         <v>148588637.70232338</v>
       </c>
-      <c r="E24" s="113">
-        <f>E25+E28</f>
+      <c r="E24" s="102">
+        <f t="shared" si="4"/>
         <v>131793882.70232336</v>
       </c>
-      <c r="F24" s="113">
-        <f>F25+F28</f>
+      <c r="F24" s="102">
+        <f t="shared" si="4"/>
         <v>126195631.03565669</v>
       </c>
-      <c r="G24" s="113">
-        <f>G25+G28</f>
+      <c r="G24" s="102">
+        <f t="shared" si="4"/>
         <v>123396505.20232336</v>
       </c>
-      <c r="H24" s="113">
-        <f>H25+H28</f>
+      <c r="H24" s="102">
+        <f t="shared" si="4"/>
         <v>121717029.70232336</v>
       </c>
-      <c r="I24" s="113">
-        <f>I25+I28</f>
-        <v>5598251.666666666</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="119" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="116">
-        <f>C26+C27</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="116">
-        <f t="shared" ref="D25:I25" si="4">D26+D27</f>
-        <v>33589510</v>
-      </c>
-      <c r="E25" s="116">
-        <f t="shared" si="4"/>
-        <v>16794755</v>
-      </c>
-      <c r="F25" s="116">
-        <f t="shared" si="4"/>
-        <v>11196503.333333332</v>
-      </c>
-      <c r="G25" s="116">
-        <f t="shared" si="4"/>
-        <v>8397377.5</v>
-      </c>
-      <c r="H25" s="116">
-        <f t="shared" si="4"/>
-        <v>6717902</v>
-      </c>
-      <c r="I25" s="116">
+      <c r="I24" s="102">
         <f t="shared" si="4"/>
         <v>5598251.666666666</v>
       </c>
     </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="105">
+        <f>C26+C27</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="105">
+        <f t="shared" ref="D25:I25" si="5">D26+D27</f>
+        <v>33589510</v>
+      </c>
+      <c r="E25" s="105">
+        <f t="shared" si="5"/>
+        <v>16794755</v>
+      </c>
+      <c r="F25" s="105">
+        <f t="shared" si="5"/>
+        <v>11196503.333333332</v>
+      </c>
+      <c r="G25" s="105">
+        <f t="shared" si="5"/>
+        <v>8397377.5</v>
+      </c>
+      <c r="H25" s="105">
+        <f t="shared" si="5"/>
+        <v>6717902</v>
+      </c>
+      <c r="I25" s="105">
+        <f t="shared" si="5"/>
+        <v>5598251.666666666</v>
+      </c>
+    </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="118" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="116">
-        <v>0</v>
-      </c>
-      <c r="D26" s="116">
+      <c r="B26" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="105">
+        <v>0</v>
+      </c>
+      <c r="D26" s="105">
         <f>'Activo Fijos y Nominales'!$F$12/D4</f>
         <v>24770350</v>
       </c>
-      <c r="E26" s="116">
+      <c r="E26" s="105">
         <f>'Activo Fijos y Nominales'!$F$12/E4</f>
         <v>12385175</v>
       </c>
-      <c r="F26" s="116">
+      <c r="F26" s="105">
         <f>'Activo Fijos y Nominales'!$F$12/F4</f>
         <v>8256783.333333333</v>
       </c>
-      <c r="G26" s="116">
+      <c r="G26" s="105">
         <f>'Activo Fijos y Nominales'!$F$12/G4</f>
         <v>6192587.5</v>
       </c>
-      <c r="H26" s="116">
+      <c r="H26" s="105">
         <f>'Activo Fijos y Nominales'!$F$12/H4</f>
         <v>4954070</v>
       </c>
-      <c r="I26" s="116">
+      <c r="I26" s="105">
         <f>'Activo Fijos y Nominales'!$F$12/I4</f>
         <v>4128391.6666666665</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="118" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116">
+      <c r="B27" s="107" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105">
         <f>'Activo Fijos y Nominales'!$F$25/D4</f>
         <v>8819160</v>
       </c>
-      <c r="E27" s="116">
+      <c r="E27" s="105">
         <f>'Activo Fijos y Nominales'!$F$25/E4</f>
         <v>4409580</v>
       </c>
-      <c r="F27" s="116">
+      <c r="F27" s="105">
         <f>'Activo Fijos y Nominales'!$F$25/F4</f>
         <v>2939720</v>
       </c>
-      <c r="G27" s="116">
+      <c r="G27" s="105">
         <f>'Activo Fijos y Nominales'!$F$25/G4</f>
         <v>2204790</v>
       </c>
-      <c r="H27" s="116">
+      <c r="H27" s="105">
         <f>'Activo Fijos y Nominales'!$F$25/H4</f>
         <v>1763832</v>
       </c>
-      <c r="I27" s="116">
+      <c r="I27" s="105">
         <f>'Activo Fijos y Nominales'!$F$25/I4</f>
         <v>1469860</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="119" t="s">
+      <c r="B28" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="116">
-        <v>0</v>
-      </c>
-      <c r="D28" s="116">
+      <c r="C28" s="105">
+        <v>0</v>
+      </c>
+      <c r="D28" s="105">
         <f>Amortizacion!D5</f>
         <v>114999127.70232336</v>
       </c>
-      <c r="E28" s="116">
+      <c r="E28" s="105">
         <f>Amortizacion!E5</f>
         <v>114999127.70232336</v>
       </c>
-      <c r="F28" s="116">
+      <c r="F28" s="105">
         <f>Amortizacion!F5</f>
         <v>114999127.70232336</v>
       </c>
-      <c r="G28" s="116">
+      <c r="G28" s="105">
         <f>Amortizacion!G5</f>
         <v>114999127.70232336</v>
       </c>
-      <c r="H28" s="116">
+      <c r="H28" s="105">
         <f>Amortizacion!H5</f>
         <v>114999127.70232336</v>
       </c>
-      <c r="I28" s="116">
+      <c r="I28" s="105">
         <f>Amortizacion!I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="125"/>
+      <c r="B29" s="114"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -2508,117 +2519,117 @@
       <c r="I29" s="27"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="130" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="131">
-        <f>C5+C14+C24</f>
+      <c r="B30" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="120">
+        <f t="shared" ref="C30:I30" si="6">C5+C14+C24</f>
         <v>462998584</v>
       </c>
-      <c r="D30" s="131">
-        <f>D5+D14+D24</f>
+      <c r="D30" s="120">
+        <f t="shared" si="6"/>
         <v>542012013.70232344</v>
       </c>
-      <c r="E30" s="131">
-        <f>E5+E14+E24</f>
+      <c r="E30" s="120">
+        <f t="shared" si="6"/>
         <v>910292258.70232332</v>
       </c>
-      <c r="F30" s="131">
-        <f>F5+F14+F24</f>
+      <c r="F30" s="120">
+        <f t="shared" si="6"/>
         <v>1289769007.0356567</v>
       </c>
-      <c r="G30" s="131">
-        <f>G5+G14+G24</f>
+      <c r="G30" s="120">
+        <f t="shared" si="6"/>
         <v>1672044881.2023234</v>
       </c>
-      <c r="H30" s="131">
-        <f>H5+H14+H24</f>
+      <c r="H30" s="120">
+        <f t="shared" si="6"/>
         <v>2055440405.7023232</v>
       </c>
-      <c r="I30" s="131">
-        <f>I5+I14+I24</f>
+      <c r="I30" s="120">
+        <f t="shared" si="6"/>
         <v>2324396627.666666</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="121" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="122">
+      <c r="B31" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="111">
         <f>C30*Complementario!$C$13</f>
         <v>125009617.68000001</v>
       </c>
-      <c r="D31" s="122">
+      <c r="D31" s="111">
         <f>D30*Complementario!$C$13</f>
         <v>146343243.69962734</v>
       </c>
-      <c r="E31" s="122">
+      <c r="E31" s="111">
         <f>E30*Complementario!$C$13</f>
         <v>245778909.84962732</v>
       </c>
-      <c r="F31" s="122">
+      <c r="F31" s="111">
         <f>F30*Complementario!$C$13</f>
         <v>348237631.89962733</v>
       </c>
-      <c r="G31" s="122">
+      <c r="G31" s="111">
         <f>G30*Complementario!$C$13</f>
         <v>451452117.92462736</v>
       </c>
-      <c r="H31" s="122">
+      <c r="H31" s="111">
         <f>H30*Complementario!$C$13</f>
         <v>554968909.53962731</v>
       </c>
-      <c r="I31" s="122">
+      <c r="I31" s="111">
         <f>I30*Complementario!$C$13</f>
         <v>627587089.46999991</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="130" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" s="131">
+      <c r="B32" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="120">
         <f>C31</f>
         <v>125009617.68000001</v>
       </c>
-      <c r="D32" s="131">
-        <f t="shared" ref="D32:I32" si="5">D31</f>
+      <c r="D32" s="120">
+        <f t="shared" ref="D32:I32" si="7">D31</f>
         <v>146343243.69962734</v>
       </c>
-      <c r="E32" s="131">
-        <f t="shared" si="5"/>
+      <c r="E32" s="120">
+        <f t="shared" si="7"/>
         <v>245778909.84962732</v>
       </c>
-      <c r="F32" s="131">
-        <f t="shared" si="5"/>
+      <c r="F32" s="120">
+        <f t="shared" si="7"/>
         <v>348237631.89962733</v>
       </c>
-      <c r="G32" s="131">
-        <f t="shared" si="5"/>
+      <c r="G32" s="120">
+        <f t="shared" si="7"/>
         <v>451452117.92462736</v>
       </c>
-      <c r="H32" s="131">
-        <f t="shared" si="5"/>
+      <c r="H32" s="120">
+        <f t="shared" si="7"/>
         <v>554968909.53962731</v>
       </c>
-      <c r="I32" s="131">
-        <f t="shared" si="5"/>
+      <c r="I32" s="120">
+        <f t="shared" si="7"/>
         <v>627587089.46999991</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="26"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C34" s="94"/>
       <c r="D34" s="94"/>
@@ -2629,40 +2640,40 @@
       <c r="I34" s="94"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="111" t="s">
-        <v>158</v>
+      <c r="B35" s="100" t="s">
+        <v>157</v>
       </c>
       <c r="C35" s="21">
-        <f>C8</f>
+        <f t="shared" ref="C35:I35" si="8">C8</f>
         <v>0</v>
       </c>
       <c r="D35" s="21">
-        <f>D8</f>
+        <f t="shared" si="8"/>
         <v>385075000</v>
       </c>
       <c r="E35" s="21">
-        <f>E8</f>
+        <f t="shared" si="8"/>
         <v>770150000</v>
       </c>
       <c r="F35" s="21">
-        <f>F8</f>
+        <f t="shared" si="8"/>
         <v>1155225000</v>
       </c>
       <c r="G35" s="21">
-        <f>G8</f>
+        <f t="shared" si="8"/>
         <v>1540300000</v>
       </c>
       <c r="H35" s="21">
-        <f>H8</f>
+        <f t="shared" si="8"/>
         <v>1925374999.9999998</v>
       </c>
       <c r="I35" s="21">
-        <f>I8</f>
+        <f t="shared" si="8"/>
         <v>2310449999.9999995</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="127"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
@@ -2672,52 +2683,52 @@
       <c r="I36" s="27"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="112" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
+      <c r="B37" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="121" t="s">
-        <v>183</v>
-      </c>
-      <c r="C38" s="116">
+      <c r="B38" s="110" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="105">
         <f>C14</f>
         <v>41937886</v>
       </c>
-      <c r="D38" s="116">
-        <f t="shared" ref="D38:I38" si="6">D14</f>
+      <c r="D38" s="105">
+        <f t="shared" ref="D38:I38" si="9">D14</f>
         <v>8348376</v>
       </c>
-      <c r="E38" s="116">
-        <f t="shared" si="6"/>
+      <c r="E38" s="105">
+        <f t="shared" si="9"/>
         <v>8348376</v>
       </c>
-      <c r="F38" s="116">
-        <f t="shared" si="6"/>
+      <c r="F38" s="105">
+        <f t="shared" si="9"/>
         <v>8348376</v>
       </c>
-      <c r="G38" s="116">
-        <f t="shared" si="6"/>
+      <c r="G38" s="105">
+        <f t="shared" si="9"/>
         <v>8348376</v>
       </c>
-      <c r="H38" s="116">
-        <f t="shared" si="6"/>
+      <c r="H38" s="105">
+        <f t="shared" si="9"/>
         <v>8348376</v>
       </c>
-      <c r="I38" s="116">
-        <f t="shared" si="6"/>
+      <c r="I38" s="105">
+        <f t="shared" si="9"/>
         <v>8348376</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="128"/>
+      <c r="B39" s="117"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
@@ -2728,7 +2739,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C40" s="94"/>
       <c r="D40" s="94"/>
@@ -2739,8 +2750,8 @@
       <c r="I40" s="94"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="110" t="s">
-        <v>184</v>
+      <c r="B41" s="99" t="s">
+        <v>183</v>
       </c>
       <c r="C41" s="21">
         <f>'Valor Desecho'!$E$15</f>
@@ -2766,7 +2777,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="129"/>
+      <c r="B42" s="118"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
@@ -2776,41 +2787,41 @@
       <c r="I42" s="27"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="130" t="s">
-        <v>154</v>
+      <c r="B43" s="119" t="s">
+        <v>153</v>
       </c>
       <c r="C43" s="21">
         <f>C12-C9-C15-C18+C35</f>
         <v>98850114</v>
       </c>
       <c r="D43" s="21">
-        <f>D8-SUM(D18,D28,D9,D15)</f>
+        <f t="shared" ref="D43:I43" si="10">D8-SUM(D18,D28,D9,D15)</f>
         <v>261727496.29767662</v>
       </c>
       <c r="E43" s="21">
-        <f>E8-SUM(E18,E28,E9,E15)</f>
+        <f t="shared" si="10"/>
         <v>646802496.29767668</v>
       </c>
       <c r="F43" s="21">
-        <f>F8-SUM(F18,F28,F9,F15)</f>
+        <f t="shared" si="10"/>
         <v>1031877496.2976767</v>
       </c>
       <c r="G43" s="21">
-        <f>G8-SUM(G18,G28,G9,G15)</f>
+        <f t="shared" si="10"/>
         <v>1416952496.2976766</v>
       </c>
       <c r="H43" s="21">
-        <f>H8-SUM(H18,H28,H9,H15)</f>
+        <f t="shared" si="10"/>
         <v>1802027496.2976763</v>
       </c>
       <c r="I43" s="21">
-        <f>I8-SUM(I18,I28,I9,I15)</f>
+        <f t="shared" si="10"/>
         <v>2302101623.9999995</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="130" t="s">
-        <v>155</v>
+      <c r="B44" s="119" t="s">
+        <v>154</v>
       </c>
       <c r="C44" s="21">
         <f>C43</f>
@@ -2825,27 +2836,27 @@
         <v>1007380106.5953534</v>
       </c>
       <c r="F44" s="21">
-        <f t="shared" ref="E44:I44" si="7">E44+F43</f>
+        <f t="shared" ref="F44:I44" si="11">E44+F43</f>
         <v>2039257602.8930302</v>
       </c>
       <c r="G44" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3456210099.1907067</v>
       </c>
       <c r="H44" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5258237595.4883833</v>
       </c>
       <c r="I44" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7560339219.4883823</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="130" t="s">
-        <v>188</v>
-      </c>
-      <c r="C45" s="116">
+      <c r="B45" s="119" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="105">
         <f>-Complementario!I8</f>
         <v>-550000000</v>
       </c>
@@ -2854,23 +2865,23 @@
         <v>261727496.29767662</v>
       </c>
       <c r="E45" s="21">
-        <f t="shared" ref="E45:I45" si="8">E43</f>
+        <f t="shared" ref="E45:I45" si="12">E43</f>
         <v>646802496.29767668</v>
       </c>
       <c r="F45" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1031877496.2976767</v>
       </c>
       <c r="G45" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1416952496.2976766</v>
       </c>
       <c r="H45" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1802027496.2976763</v>
       </c>
       <c r="I45" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2302101623.9999995</v>
       </c>
     </row>
@@ -3020,6 +3031,143 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCC5B4F-8D19-48B7-81DD-569763968B4D}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="130" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0</v>
+      </c>
+      <c r="D4" s="39">
+        <v>1</v>
+      </c>
+      <c r="E4" s="39">
+        <v>2</v>
+      </c>
+      <c r="F4" s="39">
+        <v>3</v>
+      </c>
+      <c r="G4" s="39">
+        <v>4</v>
+      </c>
+      <c r="H4" s="39">
+        <v>5</v>
+      </c>
+      <c r="I4" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="140">
+        <f>'Indicadores Financieros'!$C$4</f>
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="139">
+        <f>$C$6/(1+$C$5)</f>
+        <v>440000000</v>
+      </c>
+      <c r="E5" s="139">
+        <f>$C$6/(1+$C$5)^2</f>
+        <v>352000000</v>
+      </c>
+      <c r="F5" s="139">
+        <f>$C$6/(1+$C$5)^3</f>
+        <v>281600000</v>
+      </c>
+      <c r="G5" s="139">
+        <f>$C$6/(1+$C$5)^4</f>
+        <v>225280000</v>
+      </c>
+      <c r="H5" s="139">
+        <f>$C$6/(1+$C$5)^5</f>
+        <v>180224000</v>
+      </c>
+      <c r="I5" s="139">
+        <f>$C$6/(1+$C$5)^6</f>
+        <v>144179200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="139">
+        <f>Complementario!$I$8</f>
+        <v>550000000</v>
+      </c>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="141"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="141"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3030,8 +3178,8 @@
   </sheetPr>
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3041,69 +3189,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="98" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
+      <c r="B2" s="122" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="132">
+      <c r="C4" s="124">
         <v>0.25</v>
       </c>
-      <c r="D4" s="132"/>
+      <c r="D4" s="124"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="133">
+      <c r="B5" s="121" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="125">
         <v>6</v>
       </c>
-      <c r="D5" s="133"/>
+      <c r="D5" s="125"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="134">
+      <c r="C6" s="126">
         <f>NPV($C$4,'Flujo de Caja'!D43:I43)-Complementario!$I$8</f>
         <v>2376011113.3652716</v>
       </c>
-      <c r="D6" s="133"/>
+      <c r="D6" s="125"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="135">
+      <c r="C7" s="127">
         <f>IRR('Flujo de Caja'!C45:I45)</f>
         <v>1.0666630138854782</v>
       </c>
-      <c r="D7" s="133"/>
+      <c r="D7" s="125"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="138" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="136">
+      <c r="B8" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="128">
         <f>('Flujo de Caja'!C41-Complementario!I8)/Complementario!I8</f>
         <v>-0.99770930909090905</v>
       </c>
-      <c r="D8" s="136"/>
+      <c r="D8" s="128"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="137">
+      <c r="B9" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="123">
         <f>Complementario!I8/'Flujo de Caja'!C43</f>
         <v>5.5639794203980379</v>
       </c>
-      <c r="D9" s="137"/>
+      <c r="D9" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3148,18 +3296,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
       <c r="L2" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3195,7 +3343,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="129" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -3229,7 +3377,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="99"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="13" t="s">
         <v>87</v>
       </c>
@@ -3261,7 +3409,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="99"/>
+      <c r="B7" s="129"/>
       <c r="C7" s="13" t="s">
         <v>91</v>
       </c>
@@ -3293,7 +3441,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="99"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="13" t="s">
         <v>88</v>
       </c>
@@ -3325,7 +3473,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="99"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="13" t="s">
         <v>88</v>
       </c>
@@ -3357,7 +3505,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="99"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="13" t="s">
         <v>88</v>
       </c>
@@ -3389,7 +3537,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="99"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="13" t="s">
         <v>88</v>
       </c>
@@ -3421,7 +3569,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="99"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="13" t="s">
         <v>88</v>
       </c>
@@ -3453,7 +3601,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="99"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="13" t="s">
         <v>88</v>
       </c>
@@ -3485,7 +3633,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="99"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="13" t="s">
         <v>88</v>
       </c>
@@ -3517,7 +3665,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="99"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="13" t="s">
         <v>88</v>
       </c>
@@ -3549,7 +3697,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="99"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="13" t="s">
         <v>88</v>
       </c>
@@ -3581,7 +3729,7 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="99"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="13" t="s">
         <v>93</v>
       </c>
@@ -3613,7 +3761,7 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="99"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="13" t="s">
         <v>92</v>
       </c>
@@ -3645,7 +3793,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="99"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="13" t="s">
         <v>92</v>
       </c>
@@ -3677,7 +3825,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="99"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="13" t="s">
         <v>94</v>
       </c>
@@ -3709,7 +3857,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="99"/>
+      <c r="B21" s="129"/>
       <c r="C21" s="13" t="s">
         <v>89</v>
       </c>
@@ -3741,7 +3889,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="99"/>
+      <c r="B22" s="129"/>
       <c r="C22" s="13" t="s">
         <v>89</v>
       </c>
@@ -3773,7 +3921,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="99"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="13" t="s">
         <v>90</v>
       </c>
@@ -3805,7 +3953,7 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="99"/>
+      <c r="B24" s="129"/>
       <c r="C24" s="13" t="s">
         <v>90</v>
       </c>
@@ -3889,12 +4037,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="130" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -3942,7 +4090,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="67">
-        <f t="shared" ref="E5:E9" si="0">C6*D6</f>
+        <f t="shared" ref="E6:E9" si="0">C6*D6</f>
         <v>158970</v>
       </c>
       <c r="F6" s="8"/>
@@ -4100,7 +4248,7 @@
   <dimension ref="B2:O22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4119,16 +4267,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="122" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -4136,20 +4284,20 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="102"/>
+      <c r="C4" s="131"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="102"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="102" t="s">
+      <c r="H4" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="102"/>
+      <c r="I4" s="131"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="42" t="s">
@@ -4163,7 +4311,7 @@
         <v>60</v>
       </c>
       <c r="F5" s="43">
-        <v>27592.86</v>
+        <v>27953.42</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="42" t="s">
@@ -4204,7 +4352,7 @@
         <v>63</v>
       </c>
       <c r="F7" s="43">
-        <v>679.86</v>
+        <v>685.83</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="42" t="s">
@@ -4215,16 +4363,16 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="102"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="1"/>
       <c r="E8" s="42" t="s">
         <v>64</v>
       </c>
       <c r="F8" s="43">
-        <v>771</v>
+        <v>769.13</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="42" t="s">
@@ -4246,7 +4394,7 @@
         <v>65</v>
       </c>
       <c r="F9" s="43">
-        <v>99.138999999999996</v>
+        <v>100.01</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="42" t="s">
@@ -4268,7 +4416,7 @@
         <v>70</v>
       </c>
       <c r="F10" s="43">
-        <v>10.16</v>
+        <v>10.8</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="42" t="s">
@@ -4286,17 +4434,17 @@
         <v>126049</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="103" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="103"/>
+      <c r="E11" s="132" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="132"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
     </row>
     <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="76" t="s">
@@ -4313,11 +4461,11 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="131" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="47" t="s">
@@ -4354,11 +4502,11 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="2:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
@@ -4401,22 +4549,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="51" t="s">
@@ -4556,13 +4704,13 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="56" t="s">
@@ -4575,7 +4723,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F15" s="56" t="s">
         <v>17</v>
@@ -4756,13 +4904,13 @@
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="58" t="s">
@@ -4899,15 +5047,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C3" s="23"/>
@@ -4953,7 +5101,7 @@
         <f>'Activo Fijos y Nominales'!D6</f>
         <v>969990</v>
       </c>
-      <c r="E5" s="105">
+      <c r="E5" s="135">
         <f>Complementario!$C$17</f>
         <v>6</v>
       </c>
@@ -4982,7 +5130,7 @@
         <f>'Activo Fijos y Nominales'!D7</f>
         <v>86990</v>
       </c>
-      <c r="E6" s="105"/>
+      <c r="E6" s="135"/>
       <c r="F6" s="34">
         <f>D6/$E$5</f>
         <v>14498.333333333334</v>
@@ -5008,9 +5156,9 @@
         <f>'Activo Fijos y Nominales'!D8</f>
         <v>13290</v>
       </c>
-      <c r="E7" s="105"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="34">
-        <f t="shared" ref="F6:F10" si="1">D7/$E$5</f>
+        <f t="shared" ref="F7:F10" si="1">D7/$E$5</f>
         <v>2215</v>
       </c>
       <c r="G7" s="34">
@@ -5032,7 +5180,7 @@
         <f>'Activo Fijos y Nominales'!D9</f>
         <v>4990</v>
       </c>
-      <c r="E8" s="105"/>
+      <c r="E8" s="135"/>
       <c r="F8" s="34">
         <f t="shared" si="1"/>
         <v>831.66666666666663</v>
@@ -5056,7 +5204,7 @@
         <f>'Activo Fijos y Nominales'!D10</f>
         <v>94990</v>
       </c>
-      <c r="E9" s="105"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="34">
         <f t="shared" si="1"/>
         <v>15831.666666666666</v>
@@ -5080,7 +5228,7 @@
         <f>'Activo Fijos y Nominales'!D11</f>
         <v>533490</v>
       </c>
-      <c r="E10" s="106"/>
+      <c r="E10" s="136"/>
       <c r="F10" s="37">
         <f t="shared" si="1"/>
         <v>88915</v>
@@ -5104,7 +5252,7 @@
         <f>'Activo Fijos y Nominales'!F16</f>
         <v>1639800</v>
       </c>
-      <c r="E11" s="105">
+      <c r="E11" s="135">
         <f>Complementario!$C$18</f>
         <v>7</v>
       </c>
@@ -5132,7 +5280,7 @@
         <f>'Activo Fijos y Nominales'!F17</f>
         <v>1599800</v>
       </c>
-      <c r="E12" s="105"/>
+      <c r="E12" s="135"/>
       <c r="F12" s="34">
         <f t="shared" ref="F12:F18" si="2">D12/$E$11</f>
         <v>228542.85714285713</v>
@@ -5157,7 +5305,7 @@
         <f>'Activo Fijos y Nominales'!F18</f>
         <v>839970</v>
       </c>
-      <c r="E13" s="105"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="34">
         <f>D13/$E$5</f>
         <v>139995</v>
@@ -5171,7 +5319,7 @@
         <v>699975</v>
       </c>
       <c r="I13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -5185,7 +5333,7 @@
         <f>'Activo Fijos y Nominales'!F19</f>
         <v>89970</v>
       </c>
-      <c r="E14" s="105"/>
+      <c r="E14" s="135"/>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
         <v>12852.857142857143</v>
@@ -5210,7 +5358,7 @@
         <f>'Activo Fijos y Nominales'!F20</f>
         <v>639920</v>
       </c>
-      <c r="E15" s="105"/>
+      <c r="E15" s="135"/>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
         <v>91417.142857142855</v>
@@ -5235,7 +5383,7 @@
         <f>'Activo Fijos y Nominales'!F21</f>
         <v>209970</v>
       </c>
-      <c r="E16" s="105"/>
+      <c r="E16" s="135"/>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
         <v>29995.714285714286</v>
@@ -5260,7 +5408,7 @@
         <f>'Activo Fijos y Nominales'!F22</f>
         <v>2399970</v>
       </c>
-      <c r="E17" s="105"/>
+      <c r="E17" s="135"/>
       <c r="F17" s="34">
         <f>D17/$E$5</f>
         <v>399995</v>
@@ -5274,7 +5422,7 @@
         <v>1999975</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -5288,7 +5436,7 @@
         <f>'Activo Fijos y Nominales'!F23</f>
         <v>799960</v>
       </c>
-      <c r="E18" s="105"/>
+      <c r="E18" s="135"/>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
         <v>114280</v>
@@ -5313,7 +5461,7 @@
         <f>'Activo Fijos y Nominales'!F24</f>
         <v>599800</v>
       </c>
-      <c r="E19" s="105"/>
+      <c r="E19" s="135"/>
       <c r="F19" s="34">
         <f>D19/$E$11</f>
         <v>85685.71428571429</v>
@@ -5376,30 +5524,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
+      <c r="A2" s="122" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="G4" s="107" t="s">
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="G4" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -5434,7 +5582,7 @@
         <f>'Despreciacion Activo Fijos '!D11</f>
         <v>1639800</v>
       </c>
-      <c r="D6" s="108">
+      <c r="D6" s="138">
         <v>7</v>
       </c>
       <c r="E6" s="77">
@@ -5461,7 +5609,7 @@
         <f>'Despreciacion Activo Fijos '!D12</f>
         <v>1599800</v>
       </c>
-      <c r="D7" s="108"/>
+      <c r="D7" s="138"/>
       <c r="E7" s="77">
         <f t="shared" ref="E7:E14" si="0">C7/$D$6</f>
         <v>228542.85714285713</v>
@@ -5486,7 +5634,7 @@
         <f>'Despreciacion Activo Fijos '!D13</f>
         <v>839970</v>
       </c>
-      <c r="D8" s="108"/>
+      <c r="D8" s="138"/>
       <c r="E8" s="77">
         <f t="shared" si="0"/>
         <v>119995.71428571429</v>
@@ -5511,7 +5659,7 @@
         <f>'Despreciacion Activo Fijos '!D14</f>
         <v>89970</v>
       </c>
-      <c r="D9" s="108"/>
+      <c r="D9" s="138"/>
       <c r="E9" s="77">
         <f t="shared" si="0"/>
         <v>12852.857142857143</v>
@@ -5536,7 +5684,7 @@
         <f>'Despreciacion Activo Fijos '!D15</f>
         <v>639920</v>
       </c>
-      <c r="D10" s="108"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="77">
         <f t="shared" si="0"/>
         <v>91417.142857142855</v>
@@ -5561,7 +5709,7 @@
         <f>'Despreciacion Activo Fijos '!D16</f>
         <v>209970</v>
       </c>
-      <c r="D11" s="108"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="77">
         <f t="shared" si="0"/>
         <v>29995.714285714286</v>
@@ -5586,7 +5734,7 @@
         <f>'Despreciacion Activo Fijos '!D17</f>
         <v>2399970</v>
       </c>
-      <c r="D12" s="108"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="77">
         <f t="shared" si="0"/>
         <v>342852.85714285716</v>
@@ -5611,7 +5759,7 @@
         <f>'Despreciacion Activo Fijos '!D18</f>
         <v>799960</v>
       </c>
-      <c r="D13" s="108"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="77">
         <f t="shared" si="0"/>
         <v>114280</v>
@@ -5636,7 +5784,7 @@
         <f>'Despreciacion Activo Fijos '!D19</f>
         <v>599800</v>
       </c>
-      <c r="D14" s="108"/>
+      <c r="D14" s="138"/>
       <c r="E14" s="77">
         <f t="shared" si="0"/>
         <v>85685.71428571429</v>
@@ -5673,10 +5821,10 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="107"/>
+      <c r="C17" s="137"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
@@ -5795,7 +5943,7 @@
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B4" sqref="B4:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5805,15 +5953,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
     </row>
     <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="18"/>
